--- a/data/IDN_census-survey/maluku-data-status.xlsx
+++ b/data/IDN_census-survey/maluku-data-status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="193">
   <si>
     <t xml:space="preserve">FILE NAME</t>
   </si>
@@ -199,9 +199,15 @@
     <t xml:space="preserve">MBD</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;a href=”</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=1</t>
   </si>
   <si>
+    <t xml:space="preserve">”&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maluku Barat Daya Dalam Angka 2014</t>
   </si>
   <si>
@@ -250,6 +256,9 @@
     <t xml:space="preserve">Daweloor-Dawera</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;/a&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=17</t>
   </si>
   <si>
@@ -436,34 +445,52 @@
     <t xml:space="preserve">Statistik Daerah Kabupaten Maluku Barat Daya 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=49</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=5</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Daerah Kabupaten Maluku Barat Daya 2013</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=55</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=6</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Daerah Kabupaten Maluku Barat Daya 2012</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=45</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=7</t>
   </si>
   <si>
     <t xml:space="preserve">PDRB Kabupaten Maluku Barat Daya 2013</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=44</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=8</t>
   </si>
   <si>
     <t xml:space="preserve">PDRB Kabupaten Maluku Barat Daya 2012</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=50</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=9</t>
   </si>
   <si>
     <t xml:space="preserve">PDRB Kabupaten Maluku Barat Daya 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=47</t>
   </si>
   <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=10</t>
@@ -473,6 +500,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=48</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=11</t>
   </si>
   <si>
@@ -492,103 +522,82 @@
     <t xml:space="preserve">Indikator Kesejahteraan Rakyat Kabupaten Maluku Barat 2013</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=46</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=39</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Kecamatan Wetar Dalam Angka 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=54</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=40</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Kecamatan Wetar Barat Dalam Angka 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=52</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=41</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Kecamatan Wetar Utara Dalam Angka 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=51</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=42</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Kecamatan Wetar Timur Dalam Angka 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=53</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=43</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Kecamatan PP. Terselatan Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=44</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Kisar Utara Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Kep. Romang Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=46</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Letti Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=47</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Moa Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Lakor Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=49</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Damer Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Mdona Hyera Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=51</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan PP. Babar Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=52</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan P. Wetang Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=53</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan Babar Timur Dalam Angka 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=54</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistik Kecamatan P. Masela Dalam Angka 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=55</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik Kecamatan Dawelor Dawera Dalam Angka 2014</t>
@@ -672,7 +681,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +738,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
@@ -768,7 +783,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,19 +876,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,25 +981,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AD90"/>
+  <dimension ref="B1:AO90"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="X43" activeCellId="0" sqref="X43"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="AK52" activeCellId="0" sqref="AK52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.12755102040816"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="51.969387755102"/>
-    <col collapsed="false" hidden="true" max="9" min="6" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.3214285714286"/>
-    <col collapsed="false" hidden="true" max="23" min="12" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="57.3724489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.53571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="51.969387755102"/>
+    <col collapsed="false" hidden="true" max="12" min="9" style="1" width="0"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.3214285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="true" max="22" min="16" style="1" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,19 +1012,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1004,6 +1039,9 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0"/>
@@ -1013,26 +1051,35 @@
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0"/>
@@ -1042,6 +1089,9 @@
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="10" t="s">
@@ -1051,37 +1101,43 @@
         <v>8</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1092,28 +1148,34 @@
       <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="N9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16"/>
-      <c r="K10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
@@ -1123,595 +1185,676 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="N11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17" t="n">
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17" t="n">
         <v>2009</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17" t="n">
+      <c r="R11" s="17"/>
+      <c r="S11" s="17" t="n">
         <v>2010</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17" t="n">
+      <c r="T11" s="17"/>
+      <c r="U11" s="17" t="n">
         <v>2011</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17" t="n">
+      <c r="V11" s="17"/>
+      <c r="W11" s="17" t="n">
         <v>2012</v>
       </c>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17" t="n">
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17" t="n">
         <v>2013</v>
       </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17" t="n">
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17" t="n">
         <v>2014</v>
       </c>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17" t="n">
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17" t="n">
         <v>2015</v>
       </c>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17" t="n">
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="1" t="s">
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="N12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="W12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
       <c r="AD12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ12" s="18"/>
+      <c r="AO12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="N13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y13" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="W13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
       <c r="AD13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ13" s="18"/>
+      <c r="AO13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="N14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y14" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
       <c r="AD14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ14" s="18"/>
+      <c r="AO14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="I15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="J15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="K15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="N15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y15" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
       <c r="AD15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ15" s="18"/>
+      <c r="AO15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="I16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="N16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y16" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
       <c r="AD16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ16" s="18"/>
+      <c r="AO16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="16" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="N17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y17" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
       <c r="AD17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ17" s="18"/>
+      <c r="AO17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="0"/>
-      <c r="H18" s="16" t="s">
+      <c r="J18" s="0"/>
+      <c r="K18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="N18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
       <c r="AD18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ18" s="18"/>
+      <c r="AO18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="N19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y19" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
       <c r="AD19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ19" s="18"/>
+      <c r="AO19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="16" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="N20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y20" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
       <c r="AD20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ20" s="18"/>
+      <c r="AO20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="I21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="16" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="N21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y21" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
       <c r="AD21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ21" s="18"/>
+      <c r="AO21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1719,21 +1862,27 @@
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="0"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="19"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1742,13 +1891,16 @@
         <v>15</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="16" t="s">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1760,6 +1912,9 @@
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
@@ -1769,26 +1924,35 @@
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
@@ -1798,6 +1962,9 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
@@ -1805,10 +1972,13 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1818,126 +1988,158 @@
       <c r="D31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="0"/>
-      <c r="H31" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="0"/>
+      <c r="K31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="16" t="s">
+      <c r="J32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N32" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="23"/>
-      <c r="K34" s="13"/>
+      <c r="D34" s="0"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="24"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
       <c r="D35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="N35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17" t="n">
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17" t="n">
         <v>2009</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17" t="n">
+      <c r="R35" s="17"/>
+      <c r="S35" s="17" t="n">
         <v>2010</v>
       </c>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17" t="n">
+      <c r="T35" s="17"/>
+      <c r="U35" s="17" t="n">
         <v>2011</v>
       </c>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17" t="n">
+      <c r="V35" s="17"/>
+      <c r="W35" s="17" t="n">
         <v>2012</v>
       </c>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17" t="n">
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17" t="n">
         <v>2013</v>
       </c>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17" t="n">
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17" t="n">
         <v>2014</v>
       </c>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17" t="n">
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17" t="n">
         <v>2015</v>
       </c>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17" t="n">
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="1" t="s">
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1945,56 +2147,108 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
       <c r="D37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC37" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE37" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI37" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ37" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
       <c r="D38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC38" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD38" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2002,20 +2256,32 @@
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
       <c r="D39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2023,61 +2289,102 @@
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
       <c r="D40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
       <c r="D41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="23" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
       <c r="K41" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="X41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="23"/>
-      <c r="K42" s="24" t="s">
-        <v>88</v>
+      <c r="D42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="24"/>
+      <c r="N42" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="23"/>
-      <c r="K43" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="X43" s="1" t="s">
+      <c r="D43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="24"/>
+      <c r="N43" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2085,38 +2392,59 @@
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
       <c r="D45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC45" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD45" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2124,74 +2452,128 @@
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC46" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
       <c r="D47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
       <c r="D48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="X49" s="1" t="s">
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD49" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2199,20 +2581,35 @@
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
-      <c r="H50" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC50" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD50" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2220,20 +2617,35 @@
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD51" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2241,20 +2653,32 @@
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
       <c r="D52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
-      <c r="H52" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC52" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2262,20 +2686,32 @@
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC53" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD53" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2283,20 +2719,32 @@
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
       <c r="D54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC54" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD54" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2304,105 +2752,147 @@
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
       <c r="D55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
       <c r="D56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
       <c r="D57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
-      <c r="H57" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
       <c r="D58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
       <c r="D59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
       <c r="D60" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
       <c r="D61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
-      <c r="H61" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,315 +2903,630 @@
       <c r="F62" s="0"/>
       <c r="G62" s="0"/>
       <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C63" s="19"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="12" t="s">
+      <c r="H63" s="11"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="N63" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17" t="n">
+        <v>2009</v>
+      </c>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17" t="n">
+        <v>2011</v>
+      </c>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>61</v>
+      <c r="E64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC64" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD64" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>61</v>
+      <c r="E65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC65" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD65" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC66" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD66" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC67" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD67" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC68" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD68" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K69" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC69" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K70" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC70" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD70" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N71" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N72" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC73" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K74" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC74" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC75" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K76" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC76" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD76" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K77" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC77" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD77" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC78" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K79" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC79" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD79" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K80" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC80" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K81" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC81" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD81" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K82" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC82" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD82" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K83" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H66" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="1" t="s">
+      <c r="H84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H79" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>61</v>
+      <c r="H90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K90" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/IDN_census-survey/maluku-data-status.xlsx
+++ b/data/IDN_census-survey/maluku-data-status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="197">
   <si>
     <t xml:space="preserve">FILE NAME</t>
   </si>
@@ -238,15 +238,36 @@
     <t xml:space="preserve">Kecamatan Wetar Dalam Angka 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/tr&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=15</t>
   </si>
   <si>
     <t xml:space="preserve">Kecamatan Wetar Barat Dalam Angka 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;td&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Damer</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=24</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=16</t>
   </si>
   <si>
@@ -256,7 +277,7 @@
     <t xml:space="preserve">Daweloor-Dawera</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;/a&gt;</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=30</t>
   </si>
   <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=17</t>
@@ -268,6 +289,9 @@
     <t xml:space="preserve">Romang</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=20</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=18</t>
   </si>
   <si>
@@ -286,154 +310,142 @@
     <t xml:space="preserve">Mdona Hiera</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=20</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=25</t>
   </si>
   <si>
     <t xml:space="preserve">Kecamatan Kep. Romang Dalam Angka 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moa</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moa Lakor</t>
   </si>
   <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan Letti Dalam Angka 2014</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lakor</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Letti Dalam Angka 2014</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan Moa Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Pulau Lakor</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Moa Dalam Angka 2014</t>
+    <t xml:space="preserve">Kecamatan Lakor Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Pulau Letti</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Lakor Dalam Angka 2014</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan Damer Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Pulau Masela</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Damer Dalam Angka 2014</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan Mdona Hyera Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Pulau Wetang</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Mdona Hyera Dalam Angka 2014</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=27</t>
   </si>
   <si>
     <t xml:space="preserve">Pulau-Pulau Babar</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=26</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan P. Wetang Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Pulau-Pulau Babar Timur</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan P. Wetang Dalam Angka 2014</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan Babar Timur Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Pulau-Pulau Terselatan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Babar Timur Dalam Angka 2014</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan P. Masela Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Wetar</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan P. Masela Dalam Angka 2014</t>
+    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan Dawelor-Dawera Dalam Angka 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Wetar Barat</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Dawelor-Dawera Dalam Angka 2014</t>
+    <t xml:space="preserve">Kecamatan Wetar Dalam Angka 2013</t>
   </si>
   <si>
     <t xml:space="preserve">Wetar Timur</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan Wetar Dalam Angka 2013</t>
+    <t xml:space="preserve">Kecamatan PP. Terselatan Dalam Angka 2013</t>
   </si>
   <si>
     <t xml:space="preserve">Wetar Utara</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecamatan PP. Terselatan Dalam Angka 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kecamatan Letti Dalam Angka 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=34</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kecamatan Moa Lakor Dalam Angka 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kecamatan Damer Dalam Angka 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=36</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kecamatan Mdona Hyera Dalam Angka 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=37</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kecamatan PP. Babar Dalam Angka 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://malukubaratdayakab.bps.go.id/?hal=publikasi_detil&amp;id=38</t>
   </si>
   <si>
     <t xml:space="preserve">Kecamatan Babar Timur Dalam Angka 2013</t>
@@ -681,7 +693,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,7 +727,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3DEB3D"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF33FF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -746,6 +758,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF3DEB3D"/>
       </patternFill>
     </fill>
   </fills>
@@ -783,7 +801,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,11 +914,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -956,7 +982,7 @@
       <rgbColor rgb="FFB3A2C7"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -981,12 +1007,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AO90"/>
+  <dimension ref="B1:BJ90"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="AK52" activeCellId="0" sqref="AK52"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1001,13 +1027,37 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="51.969387755102"/>
     <col collapsed="false" hidden="true" max="12" min="9" style="1" width="0"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.3214285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="true" max="22" min="16" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.3214285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="37" min="36" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="5.87755102040816"/>
+    <col collapsed="false" hidden="false" max="41" min="39" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="51.6479591836735"/>
+    <col collapsed="false" hidden="false" max="53" min="46" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="57" min="56" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="60" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1110,11 +1160,11 @@
       <c r="K7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1187,7 @@
       <c r="K8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1160,7 +1210,7 @@
       <c r="K9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="O9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1175,7 +1225,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="16"/>
-      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
@@ -1191,56 +1241,63 @@
       <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="O11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="T11" s="17" t="n">
         <v>2009</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17" t="n">
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="X11" s="17" t="n">
         <v>2010</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17" t="n">
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AB11" s="17" t="n">
         <v>2011</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17" t="n">
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AF11" s="17" t="n">
         <v>2012</v>
       </c>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17" t="n">
-        <v>2013</v>
-      </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
       <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
       <c r="AJ11" s="17"/>
-      <c r="AK11" s="17" t="n">
-        <v>2015</v>
-      </c>
+      <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
       <c r="AM11" s="17" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BD11" s="17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BE11" s="17"/>
+      <c r="BH11" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="1" t="s">
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
@@ -1266,36 +1323,39 @@
       <c r="M12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="O12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" s="18" t="s">
+      <c r="AF12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z12" s="18" t="s">
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI12" s="18" t="s">
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="18"/>
-      <c r="AO12" s="1" t="s">
+      <c r="BA12" s="18"/>
+      <c r="BJ12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1321,36 +1381,39 @@
       <c r="M13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="O13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X13" s="18" t="s">
+      <c r="AF13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z13" s="18" t="s">
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI13" s="18" t="s">
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ13" s="18"/>
-      <c r="AO13" s="1" t="s">
+      <c r="BA13" s="18"/>
+      <c r="BJ13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1376,48 +1439,55 @@
       <c r="M14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="O14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="18" t="s">
+      <c r="R14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="X14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V14" s="18" t="s">
+      <c r="Z14" s="18"/>
+      <c r="AB14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" s="18" t="s">
+      <c r="AD14" s="18"/>
+      <c r="AF14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z14" s="18" t="s">
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI14" s="18" t="s">
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ14" s="18"/>
-      <c r="AO14" s="1" t="s">
+      <c r="BA14" s="18"/>
+      <c r="BJ14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
         <v>34</v>
       </c>
@@ -1443,48 +1513,55 @@
       <c r="M15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" s="18" t="s">
+      <c r="R15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="X15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" s="18" t="s">
+      <c r="Z15" s="18"/>
+      <c r="AB15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X15" s="18" t="s">
+      <c r="AD15" s="18"/>
+      <c r="AF15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z15" s="18" t="s">
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI15" s="18" t="s">
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ15" s="18"/>
-      <c r="AO15" s="1" t="s">
+      <c r="BA15" s="18"/>
+      <c r="BJ15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
@@ -1510,42 +1587,45 @@
       <c r="M16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="O16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="18" t="s">
+      <c r="X16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="18" t="s">
+      <c r="AF16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="18" t="s">
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI16" s="18" t="s">
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ16" s="18"/>
-      <c r="AO16" s="1" t="s">
+      <c r="BA16" s="18"/>
+      <c r="BJ16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
@@ -1569,48 +1649,55 @@
       <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" s="18" t="s">
+      <c r="R17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="X17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V17" s="18" t="s">
+      <c r="Z17" s="18"/>
+      <c r="AB17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="18" t="s">
+      <c r="AD17" s="18"/>
+      <c r="AF17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z17" s="18" t="s">
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI17" s="18" t="s">
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ17" s="18"/>
-      <c r="AO17" s="1" t="s">
+      <c r="BA17" s="18"/>
+      <c r="BJ17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
@@ -1634,42 +1721,45 @@
       <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="O18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T18" s="18" t="s">
+      <c r="X18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X18" s="18" t="s">
+      <c r="AF18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z18" s="18" t="s">
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI18" s="18" t="s">
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ18" s="18"/>
-      <c r="AO18" s="1" t="s">
+      <c r="BA18" s="18"/>
+      <c r="BJ18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
         <v>48</v>
       </c>
@@ -1693,42 +1783,45 @@
       <c r="M19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="O19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="18" t="s">
+      <c r="X19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X19" s="18" t="s">
+      <c r="AF19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z19" s="18" t="s">
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI19" s="18" t="s">
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ19" s="18"/>
-      <c r="AO19" s="1" t="s">
+      <c r="BA19" s="18"/>
+      <c r="BJ19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1752,48 +1845,55 @@
       <c r="M20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="O20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T20" s="18" t="s">
+      <c r="R20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="X20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V20" s="18" t="s">
+      <c r="Z20" s="18"/>
+      <c r="AB20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X20" s="18" t="s">
+      <c r="AD20" s="18"/>
+      <c r="AF20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z20" s="18" t="s">
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI20" s="18" t="s">
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ20" s="18"/>
-      <c r="AO20" s="1" t="s">
+      <c r="BA20" s="18"/>
+      <c r="BJ20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
         <v>54</v>
       </c>
@@ -1817,44 +1917,51 @@
       <c r="M21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="O21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="18" t="s">
+      <c r="R21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="X21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V21" s="18" t="s">
+      <c r="Z21" s="18"/>
+      <c r="AB21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="18" t="s">
+      <c r="AD21" s="18"/>
+      <c r="AF21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z21" s="18" t="s">
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI21" s="18" t="s">
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ21" s="18"/>
-      <c r="AO21" s="1" t="s">
+      <c r="BA21" s="18"/>
+      <c r="BJ21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1982,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="1" t="s">
@@ -2004,11 +2111,11 @@
       <c r="K31" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="O31" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13" t="s">
         <v>64</v>
       </c>
@@ -2034,11 +2141,11 @@
       <c r="K32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="O32" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="1" t="s">
@@ -2058,7 +2165,7 @@
       <c r="K33" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="O33" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2070,7 +2177,7 @@
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="24"/>
-      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
@@ -2094,52 +2201,109 @@
       <c r="M35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17" t="n">
+      <c r="P35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T35" s="17" t="n">
         <v>2009</v>
       </c>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17" t="n">
+      <c r="U35" s="17"/>
+      <c r="V35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35" s="17" t="n">
         <v>2010</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17" t="n">
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB35" s="17" t="n">
         <v>2011</v>
       </c>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17" t="n">
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF35" s="17" t="n">
         <v>2012</v>
       </c>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17" t="n">
-        <v>2013</v>
-      </c>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
+      <c r="AH35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AJ35" s="17"/>
-      <c r="AK35" s="17" t="n">
-        <v>2015</v>
-      </c>
+      <c r="AK35" s="17"/>
       <c r="AL35" s="17"/>
       <c r="AM35" s="17" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="17" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AV35" s="17"/>
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD35" s="17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH35" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="1" t="s">
+      <c r="BI35" s="17"/>
+      <c r="BJ35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2150,24 +2314,108 @@
         <v>59</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>24</v>
+      <c r="N36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ36" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,13 +2425,13 @@
         <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
@@ -2191,31 +2439,91 @@
         <v>63</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC37" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE37" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF37" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI37" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT37" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX37" s="25"/>
+      <c r="AY37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AJ37" s="25" t="s">
+      <c r="BA37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ37" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2226,13 +2534,13 @@
         <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
@@ -2240,16 +2548,79 @@
         <v>63</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC38" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT38" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ38" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,13 +2630,13 @@
         <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
@@ -2273,16 +2644,79 @@
         <v>63</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC39" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ39" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,33 +2726,96 @@
         <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>24</v>
+      <c r="N40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC40" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS40" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ40" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,30 +2825,118 @@
         <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="27" t="s">
-        <v>90</v>
+      <c r="N41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC41" s="23" t="s">
-        <v>61</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
       <c r="AD41" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO41" s="25"/>
+      <c r="AP41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR41" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS41" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT41" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ41" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,11 +2946,80 @@
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="24"/>
-      <c r="N42" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>24</v>
+      <c r="N42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT42" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ42" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,17 +3029,80 @@
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="24"/>
-      <c r="N43" s="28" t="s">
-        <v>92</v>
+      <c r="N43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC43" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ43" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,21 +3112,93 @@
         <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="29" t="s">
-        <v>95</v>
+      <c r="N44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ44" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,33 +3208,78 @@
         <v>59</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y45" s="1" t="s">
-        <v>24</v>
+      <c r="N45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC45" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ45" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,13 +3289,13 @@
         <v>59</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
@@ -2469,16 +3303,94 @@
         <v>63</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC46" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL46" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT46" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ46" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,13 +3400,13 @@
         <v>59</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
@@ -2502,16 +3414,79 @@
         <v>63</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC47" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ47" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,76 +3496,205 @@
         <v>59</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT48" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0"/>
       <c r="K49" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>24</v>
+      <c r="N49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC49" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ49" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0"/>
@@ -2598,19 +3702,94 @@
         <v>63</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC50" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL50" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT50" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ50" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,13 +3799,13 @@
         <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
@@ -2634,19 +3813,94 @@
         <v>63</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC51" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ51" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,13 +3910,13 @@
         <v>59</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I52" s="0"/>
       <c r="J52" s="0"/>
@@ -2670,16 +3924,94 @@
         <v>63</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC52" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK52" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL52" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT52" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ52" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,13 +4021,13 @@
         <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I53" s="0"/>
       <c r="J53" s="0"/>
@@ -2703,16 +4035,79 @@
         <v>63</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>121</v>
+        <v>76</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC53" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT53" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ53" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,14 +4116,14 @@
       <c r="D54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>122</v>
+      <c r="E54" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I54" s="0"/>
       <c r="J54" s="0"/>
@@ -2736,16 +4131,79 @@
         <v>63</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC54" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT54" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ54" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,19 +4213,94 @@
         <v>59</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I55" s="0"/>
       <c r="J55" s="0"/>
       <c r="K55" s="24" t="s">
         <v>63</v>
       </c>
+      <c r="N55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT55" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ55" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
@@ -2776,13 +4309,13 @@
         <v>59</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I56" s="0"/>
       <c r="J56" s="0"/>
@@ -2797,13 +4330,13 @@
         <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
@@ -2818,13 +4351,13 @@
         <v>59</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
@@ -2839,13 +4372,13 @@
         <v>59</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I59" s="0"/>
       <c r="J59" s="0"/>
@@ -2860,13 +4393,13 @@
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I60" s="0"/>
       <c r="J60" s="0"/>
@@ -2881,13 +4414,13 @@
         <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I61" s="0"/>
       <c r="J61" s="0"/>
@@ -2922,531 +4455,1551 @@
       <c r="K63" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N63" s="17" t="s">
+      <c r="O63" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17" t="n">
+      <c r="Q63" s="17"/>
+      <c r="R63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T63" s="17" t="n">
         <v>2009</v>
       </c>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17" t="n">
+      <c r="U63" s="17"/>
+      <c r="V63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X63" s="17" t="n">
         <v>2010</v>
       </c>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17" t="n">
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB63" s="17" t="n">
         <v>2011</v>
       </c>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17" t="n">
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF63" s="17" t="n">
         <v>2012</v>
       </c>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17" t="n">
-        <v>2013</v>
-      </c>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
-      <c r="AB63" s="17"/>
-      <c r="AC63" s="17"/>
-      <c r="AD63" s="17" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AE63" s="17"/>
-      <c r="AF63" s="17"/>
       <c r="AG63" s="17"/>
-      <c r="AH63" s="17"/>
-      <c r="AI63" s="17"/>
+      <c r="AH63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI63" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AJ63" s="17"/>
-      <c r="AK63" s="17" t="n">
-        <v>2015</v>
-      </c>
+      <c r="AK63" s="17"/>
       <c r="AL63" s="17"/>
       <c r="AM63" s="17" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+      <c r="AP63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR63" s="17"/>
+      <c r="AS63" s="17"/>
+      <c r="AT63" s="17"/>
+      <c r="AU63" s="17" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AV63" s="17"/>
+      <c r="AW63" s="17"/>
+      <c r="AX63" s="17"/>
+      <c r="AY63" s="17"/>
+      <c r="AZ63" s="17"/>
+      <c r="BA63" s="17"/>
+      <c r="BB63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD63" s="17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BE63" s="17"/>
+      <c r="BF63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH63" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="AN63" s="17"/>
-      <c r="AO63" s="1" t="s">
-        <v>18</v>
+      <c r="BI63" s="17"/>
+      <c r="BJ63" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K64" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>74</v>
+      <c r="O64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC64" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT64" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ64" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K65" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>77</v>
+      <c r="O65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC65" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT65" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ65" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K66" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>81</v>
+      <c r="O66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC66" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT66" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ66" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K67" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>84</v>
+      <c r="O67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC67" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT67" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ67" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K68" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N68" s="27" t="s">
-        <v>87</v>
+      <c r="O68" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC68" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT68" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ68" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K69" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N69" s="27" t="s">
-        <v>90</v>
+      <c r="O69" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB69" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC69" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="AE69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT69" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ69" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K70" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N70" s="27" t="s">
-        <v>91</v>
+      <c r="O70" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC70" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="AE70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT70" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N71" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O71" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ71" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K72" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N72" s="29" t="s">
-        <v>95</v>
+      <c r="O72" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ72" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K73" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N73" s="2" t="s">
-        <v>98</v>
+      <c r="O73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB73" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC73" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT73" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ73" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K74" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>101</v>
+      <c r="O74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC74" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT74" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ74" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K75" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>104</v>
+      <c r="O75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC75" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT75" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ75" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K76" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>107</v>
+      <c r="O76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB76" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC76" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="AE76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT76" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K77" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>109</v>
+      <c r="O77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB77" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC77" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT77" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ77" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K78" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>112</v>
+      <c r="O78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC78" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT78" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ78" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K79" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N79" s="1" t="s">
-        <v>115</v>
+      <c r="O79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z79" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB79" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC79" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT79" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ79" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K80" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>118</v>
+      <c r="O80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z80" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC80" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT80" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ80" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K81" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>121</v>
+      <c r="O81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB81" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC81" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT81" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ81" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K82" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>124</v>
+      <c r="O82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z82" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB82" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC82" s="23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="AE82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT82" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ82" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K83" s="24" t="s">
         <v>63</v>
@@ -3454,10 +6007,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K84" s="24" t="s">
         <v>63</v>
@@ -3465,10 +6018,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K85" s="24" t="s">
         <v>63</v>
@@ -3476,10 +6029,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K86" s="24" t="s">
         <v>63</v>
@@ -3487,10 +6040,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K87" s="24" t="s">
         <v>63</v>
@@ -3498,10 +6051,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K88" s="24" t="s">
         <v>63</v>
@@ -3509,10 +6062,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K89" s="24" t="s">
         <v>63</v>
@@ -3520,10 +6073,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K90" s="24" t="s">
         <v>63</v>

--- a/data/IDN_census-survey/maluku-data-status.xlsx
+++ b/data/IDN_census-survey/maluku-data-status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="198">
   <si>
     <t xml:space="preserve">FILE NAME</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
   </si>
   <si>
     <t xml:space="preserve">MOMAR 2013.pdf</t>
@@ -1007,12 +1010,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:BJ90"/>
+  <dimension ref="B1:BP90"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1041,23 +1044,28 @@
     <col collapsed="false" hidden="false" max="33" min="32" style="1" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="1" width="3.91326530612245"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="4.89795918367347"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="55.0867346938776"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="5.87755102040816"/>
-    <col collapsed="false" hidden="false" max="41" min="39" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="4.89795918367347"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="51.6479591836735"/>
-    <col collapsed="false" hidden="false" max="53" min="46" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="1" width="4.89795918367347"/>
-    <col collapsed="false" hidden="false" max="57" min="56" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="1" width="4.89795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="60" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="40" min="39" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="45" min="42" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="47" min="46" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="1" width="51.6479591836735"/>
+    <col collapsed="false" hidden="false" max="53" min="51" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="1" width="3.26530612244898"/>
+    <col collapsed="false" hidden="false" max="59" min="55" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="63" min="62" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="1" width="4.89795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="66" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1273,27 +1281,33 @@
       </c>
       <c r="AN11" s="17"/>
       <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
       <c r="AT11" s="17"/>
-      <c r="AU11" s="17" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AV11" s="17"/>
       <c r="AW11" s="17"/>
       <c r="AX11" s="17"/>
       <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
+      <c r="AZ11" s="17" t="n">
+        <v>2014</v>
+      </c>
       <c r="BA11" s="17"/>
-      <c r="BD11" s="17" t="n">
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
+      <c r="BJ11" s="17" t="n">
         <v>2015</v>
       </c>
-      <c r="BE11" s="17"/>
-      <c r="BH11" s="17" t="n">
+      <c r="BK11" s="17"/>
+      <c r="BN11" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="1" t="s">
+      <c r="BO11" s="17"/>
+      <c r="BP11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1338,42 +1352,49 @@
       <c r="AM12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO12" s="18" t="s">
+      <c r="AO12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
       <c r="AT12" s="18"/>
-      <c r="AU12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ12" s="18" t="s">
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA12" s="18"/>
-      <c r="BJ12" s="1" t="s">
+      <c r="BG12" s="18"/>
+      <c r="BP12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>14</v>
@@ -1382,7 +1403,7 @@
         <v>17</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>24</v>
@@ -1396,42 +1417,49 @@
       <c r="AM13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO13" s="18" t="s">
+      <c r="AO13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
       <c r="AT13" s="18"/>
-      <c r="AU13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ13" s="18" t="s">
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA13" s="18"/>
-      <c r="BJ13" s="1" t="s">
+      <c r="BG13" s="18"/>
+      <c r="BP13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>14</v>
@@ -1440,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R14" s="18"/>
       <c r="V14" s="18"/>
@@ -1470,42 +1498,49 @@
       <c r="AM14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO14" s="18" t="s">
+      <c r="AO14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
       <c r="AT14" s="18"/>
-      <c r="AU14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ14" s="18" t="s">
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA14" s="18"/>
-      <c r="BJ14" s="1" t="s">
+      <c r="BG14" s="18"/>
+      <c r="BP14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>14</v>
@@ -1514,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R15" s="18"/>
       <c r="V15" s="18"/>
@@ -1544,42 +1579,49 @@
       <c r="AM15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO15" s="18" t="s">
+      <c r="AO15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="18"/>
       <c r="AT15" s="18"/>
-      <c r="AU15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ15" s="18" t="s">
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA15" s="18"/>
-      <c r="BJ15" s="1" t="s">
+      <c r="BG15" s="18"/>
+      <c r="BP15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>14</v>
@@ -1588,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>24</v>
@@ -1608,36 +1650,43 @@
       <c r="AM16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO16" s="18" t="s">
+      <c r="AO16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
       <c r="AT16" s="18"/>
-      <c r="AU16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ16" s="18" t="s">
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA16" s="18"/>
-      <c r="BJ16" s="1" t="s">
+      <c r="BG16" s="18"/>
+      <c r="BP16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>12</v>
@@ -1650,7 +1699,7 @@
         <v>17</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R17" s="18"/>
       <c r="V17" s="18"/>
@@ -1680,36 +1729,43 @@
       <c r="AM17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO17" s="18" t="s">
+      <c r="AO17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
       <c r="AT17" s="18"/>
-      <c r="AU17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ17" s="18" t="s">
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA17" s="18"/>
-      <c r="BJ17" s="1" t="s">
+      <c r="BG17" s="18"/>
+      <c r="BP17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>12</v>
@@ -1722,7 +1778,7 @@
         <v>17</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>24</v>
@@ -1742,36 +1798,43 @@
       <c r="AM18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO18" s="18" t="s">
+      <c r="AO18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
       <c r="AT18" s="18"/>
-      <c r="AU18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ18" s="18" t="s">
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA18" s="18"/>
-      <c r="BJ18" s="1" t="s">
+      <c r="BG18" s="18"/>
+      <c r="BP18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>12</v>
@@ -1784,7 +1847,7 @@
         <v>17</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>24</v>
@@ -1804,36 +1867,43 @@
       <c r="AM19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO19" s="18" t="s">
+      <c r="AO19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
       <c r="AT19" s="18"/>
-      <c r="AU19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ19" s="18" t="s">
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA19" s="18"/>
-      <c r="BJ19" s="1" t="s">
+      <c r="BG19" s="18"/>
+      <c r="BP19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>12</v>
@@ -1846,7 +1916,7 @@
         <v>17</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R20" s="18"/>
       <c r="V20" s="18"/>
@@ -1876,36 +1946,43 @@
       <c r="AM20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO20" s="18" t="s">
+      <c r="AO20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
       <c r="AT20" s="18"/>
-      <c r="AU20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ20" s="18" t="s">
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA20" s="18"/>
-      <c r="BJ20" s="1" t="s">
+      <c r="BG20" s="18"/>
+      <c r="BP20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>12</v>
@@ -1918,7 +1995,7 @@
         <v>17</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" s="18"/>
       <c r="V21" s="18"/>
@@ -1948,20 +2025,27 @@
       <c r="AM21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO21" s="18" t="s">
+      <c r="AO21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
       <c r="AT21" s="18"/>
-      <c r="AU21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ21" s="18" t="s">
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BA21" s="18"/>
-      <c r="BJ21" s="1" t="s">
+      <c r="BG21" s="18"/>
+      <c r="BP21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1979,7 +2063,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -2037,7 +2121,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2089,84 +2173,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="0"/>
       <c r="K31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O31" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,80 +2266,80 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O35" s="17" t="s">
         <v>8</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="17"/>
       <c r="R35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="T35" s="17" t="n">
         <v>2009</v>
       </c>
       <c r="U35" s="17"/>
       <c r="V35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="X35" s="17" t="n">
         <v>2010</v>
       </c>
       <c r="Y35" s="17"/>
       <c r="Z35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA35" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AB35" s="17" t="n">
         <v>2011</v>
       </c>
       <c r="AC35" s="17"/>
       <c r="AD35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE35" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AE35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AF35" s="17" t="n">
         <v>2012</v>
       </c>
       <c r="AG35" s="17"/>
       <c r="AH35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI35" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AI35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
@@ -2265,45 +2349,51 @@
       </c>
       <c r="AN35" s="17"/>
       <c r="AO35" s="17"/>
-      <c r="AP35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ35" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
       <c r="AT35" s="17"/>
-      <c r="AU35" s="17" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AV35" s="17"/>
+      <c r="AU35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV35" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
       <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
+      <c r="AZ35" s="17" t="n">
+        <v>2014</v>
+      </c>
       <c r="BA35" s="17"/>
-      <c r="BB35" s="1" t="s">
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="17"/>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="17"/>
+      <c r="BG35" s="17"/>
+      <c r="BH35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD35" s="17" t="n">
+      <c r="BJ35" s="17" t="n">
         <v>2015</v>
       </c>
-      <c r="BE35" s="17"/>
-      <c r="BF35" s="1" t="s">
+      <c r="BK35" s="17"/>
+      <c r="BL35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BG35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH35" s="17" t="n">
+      <c r="BN35" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="BI35" s="17"/>
-      <c r="BJ35" s="1" t="s">
+      <c r="BO35" s="17"/>
+      <c r="BP35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2311,632 +2401,650 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL36" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AT36" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="AU36" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY36" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP36" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
       <c r="D37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT37" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW37" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX37" s="25"/>
-      <c r="AY37" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY37" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD37" s="25"/>
+      <c r="BE37" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BA37" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ37" s="1" t="s">
-        <v>78</v>
+      <c r="BG37" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP37" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
       <c r="D38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT38" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP38" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
       <c r="D39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT39" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY39" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP39" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AP40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS40" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT40" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="AU40" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX40" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY40" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP40" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
       <c r="V41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
       <c r="Z41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" s="25"/>
       <c r="AC41" s="25"/>
       <c r="AD41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF41" s="25"/>
       <c r="AG41" s="25"/>
       <c r="AH41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AL41" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM41" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO41" s="25"/>
-      <c r="AP41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR41" s="25" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="AO41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP41" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="AS41" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT41" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU41" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AT41" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU41" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AV41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW41" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX41" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY41" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP41" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,79 +3055,79 @@
       <c r="J42" s="0"/>
       <c r="K42" s="24"/>
       <c r="N42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT42" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY42" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP42" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,1402 +3138,1402 @@
       <c r="J43" s="0"/>
       <c r="K43" s="24"/>
       <c r="N43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL43" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ43" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="AU43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP43" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O44" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT44" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY44" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP44" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
       <c r="D45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O45" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AU45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP45" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL46" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AN46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT46" s="23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY46" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP46" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
       <c r="D47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT47" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY47" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP47" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
       <c r="D48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT48" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY48" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP48" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0"/>
       <c r="K49" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL49" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AN49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ49" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="AU49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0"/>
       <c r="K50" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL50" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AN50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT50" s="23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY50" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP50" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
       <c r="K51" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL51" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AN51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT51" s="23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY51" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP51" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I52" s="0"/>
       <c r="J52" s="0"/>
       <c r="K52" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL52" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AN52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT52" s="23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY52" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP52" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I53" s="0"/>
       <c r="J53" s="0"/>
       <c r="K53" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT53" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY53" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP53" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
       <c r="D54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I54" s="0"/>
       <c r="J54" s="0"/>
       <c r="K54" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT54" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY54" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP54" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
       <c r="D55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I55" s="0"/>
       <c r="J55" s="0"/>
       <c r="K55" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT55" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AV55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AW55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY55" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP55" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
       <c r="D56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I56" s="0"/>
       <c r="J56" s="0"/>
       <c r="K56" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
       <c r="D57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
       <c r="K57" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
       <c r="D58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
       <c r="K58" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I59" s="0"/>
       <c r="J59" s="0"/>
       <c r="K59" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
       <c r="D60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I60" s="0"/>
       <c r="J60" s="0"/>
       <c r="K60" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
       <c r="D61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I61" s="0"/>
       <c r="J61" s="0"/>
       <c r="K61" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,7 +4550,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -4460,50 +4568,50 @@
       </c>
       <c r="Q63" s="17"/>
       <c r="R63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="T63" s="17" t="n">
         <v>2009</v>
       </c>
       <c r="U63" s="17"/>
       <c r="V63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="X63" s="17" t="n">
         <v>2010</v>
       </c>
       <c r="Y63" s="17"/>
       <c r="Z63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AA63" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AB63" s="17" t="n">
         <v>2011</v>
       </c>
       <c r="AC63" s="17"/>
       <c r="AD63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AE63" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AF63" s="17" t="n">
         <v>2012</v>
       </c>
       <c r="AG63" s="17"/>
       <c r="AH63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AI63" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
@@ -4513,1573 +4621,1579 @@
       </c>
       <c r="AN63" s="17"/>
       <c r="AO63" s="17"/>
-      <c r="AP63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ63" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AP63" s="17"/>
+      <c r="AQ63" s="17"/>
       <c r="AR63" s="17"/>
       <c r="AS63" s="17"/>
       <c r="AT63" s="17"/>
-      <c r="AU63" s="17" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AV63" s="17"/>
+      <c r="AU63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV63" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
       <c r="AY63" s="17"/>
-      <c r="AZ63" s="17"/>
+      <c r="AZ63" s="17" t="n">
+        <v>2014</v>
+      </c>
       <c r="BA63" s="17"/>
-      <c r="BB63" s="1" t="s">
+      <c r="BB63" s="17"/>
+      <c r="BC63" s="17"/>
+      <c r="BD63" s="17"/>
+      <c r="BE63" s="17"/>
+      <c r="BF63" s="17"/>
+      <c r="BG63" s="17"/>
+      <c r="BH63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD63" s="17" t="n">
+      <c r="BJ63" s="17" t="n">
         <v>2015</v>
       </c>
-      <c r="BE63" s="17"/>
-      <c r="BF63" s="1" t="s">
+      <c r="BK63" s="17"/>
+      <c r="BL63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BG63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH63" s="17" t="n">
+      <c r="BN63" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="BI63" s="17"/>
-      <c r="BJ63" s="1" t="s">
-        <v>73</v>
+      <c r="BO63" s="17"/>
+      <c r="BP63" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT64" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY64" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP64" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT65" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY65" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP65" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT66" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY66" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP66" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT67" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY67" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP67" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O68" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS68" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT68" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY68" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP68" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O69" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT69" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ69" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="AV69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY69" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP69" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O70" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS70" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT70" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ70" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="AV70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY70" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP70" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O71" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ71" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="AU71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP71" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O72" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH72" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AU72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP72" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS73" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT73" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY73" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP73" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT74" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY74" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP74" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR75" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT75" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY75" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP75" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS76" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT76" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ76" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="AV76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY76" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS77" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT77" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX77" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY77" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP77" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX78" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K78" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT78" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ78" s="1" t="s">
-        <v>78</v>
+      <c r="AY78" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP78" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS79" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT79" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY79" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP79" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA80" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS80" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT80" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY80" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP80" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI81" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ81" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS81" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT81" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC81" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG81" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY81" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP81" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS82" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT82" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AV82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY82" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP82" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
